--- a/Racecard_20250223_5.xlsx
+++ b/Racecard_20250223_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="264">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,9 @@
     <t>上次班次</t>
   </si>
   <si>
+    <t>上次路程</t>
+  </si>
+  <si>
     <t>上次名次</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>前次總場次</t>
   </si>
   <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
     <t>前次名次</t>
   </si>
   <si>
@@ -286,13 +298,19 @@
     <t>前次賽事</t>
   </si>
   <si>
-    <t>2次調整後完成時間</t>
+    <t>2次調整後平均時間</t>
   </si>
   <si>
     <t>上次調整後完成秒速</t>
   </si>
   <si>
-    <t>2次調整後完成秒速</t>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
   </si>
   <si>
     <t>ST</t>
@@ -604,6 +622,9 @@
     <t>ISG</t>
   </si>
   <si>
+    <t>2025/01/19</t>
+  </si>
+  <si>
     <t>2025/01/01</t>
   </si>
   <si>
@@ -619,27 +640,30 @@
     <t>2024/06/23</t>
   </si>
   <si>
+    <t xml:space="preserve">一級賽 </t>
+  </si>
+  <si>
     <t xml:space="preserve">三級賽 </t>
   </si>
   <si>
-    <t xml:space="preserve">一級賽 </t>
-  </si>
-  <si>
     <t xml:space="preserve">第二班 </t>
   </si>
   <si>
+    <t>潘頓</t>
+  </si>
+  <si>
     <t>艾道拿</t>
   </si>
   <si>
-    <t>潘頓</t>
-  </si>
-  <si>
     <t>麥道朗</t>
   </si>
   <si>
     <t>田泰安</t>
   </si>
   <si>
+    <t>1:07.20</t>
+  </si>
+  <si>
     <t>57.68</t>
   </si>
   <si>
@@ -682,9 +706,15 @@
     <t>1:21.94</t>
   </si>
   <si>
+    <t>1:07.85</t>
+  </si>
+  <si>
     <t>1:21.59</t>
   </si>
   <si>
+    <t>1:19.52</t>
+  </si>
+  <si>
     <t>1:21.81</t>
   </si>
   <si>
@@ -697,6 +727,9 @@
     <t>1:21.75</t>
   </si>
   <si>
+    <t>1:20.2</t>
+  </si>
+  <si>
     <t>1:21.6</t>
   </si>
   <si>
@@ -706,6 +739,15 @@
     <t>1:21.97</t>
   </si>
   <si>
+    <t>2024/10/01</t>
+  </si>
+  <si>
+    <t>2024/02/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一班 </t>
+  </si>
+  <si>
     <t>賀銘年</t>
   </si>
   <si>
@@ -739,37 +781,43 @@
     <t>1:21.57</t>
   </si>
   <si>
-    <t>艾道拿(9)9.1</t>
-  </si>
-  <si>
-    <t>潘頓(4)2.9</t>
-  </si>
-  <si>
-    <t>艾道拿(3)2.3</t>
-  </si>
-  <si>
-    <t>麥道朗(6)9.8</t>
-  </si>
-  <si>
-    <t>潘頓(5)7.7</t>
-  </si>
-  <si>
-    <t>田泰安(1)2.2</t>
-  </si>
-  <si>
-    <t>田泰安(1)3.1</t>
-  </si>
-  <si>
-    <t>艾道拿(2)2.4</t>
-  </si>
-  <si>
-    <t>賀銘年(3)18.0</t>
-  </si>
-  <si>
-    <t>何澤堯(2)2.8</t>
-  </si>
-  <si>
-    <t>田泰安(2)1.2</t>
+    <t>##[19/01] 1200 潘頓 (1) 1.1</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 艾道拿 (9) 9.1</t>
+  </si>
+  <si>
+    <t>[10/03] 1400 潘頓 (4) 2.9</t>
+  </si>
+  <si>
+    <t>[10/12] 1400 艾道拿 (3) 2.3</t>
+  </si>
+  <si>
+    <t>[21/01] 1400 麥道朗 (6) 9.8</t>
+  </si>
+  <si>
+    <t>##[19/01] 1200 艾道拿 (4) 72.0</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 潘頓 (5) 7.7</t>
+  </si>
+  <si>
+    <t>[01/01] 1400 田泰安 (1) 2.2</t>
+  </si>
+  <si>
+    <t>[23/06] 1400 田泰安 (1) 3.1</t>
+  </si>
+  <si>
+    <t>[23/06] 1400 艾道拿 (2) 2.4</t>
+  </si>
+  <si>
+    <t>[10/03] 1400 賀銘年 (3) 18.0</t>
+  </si>
+  <si>
+    <t>[01/10] 1400 何澤堯 (2) 2.8</t>
+  </si>
+  <si>
+    <t>[12/02] 1400 田泰安 (2) 1.2</t>
   </si>
   <si>
     <t>1:22.01</t>
@@ -1137,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO10"/>
+  <dimension ref="A1:CU10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,22 +1471,40 @@
       <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:99">
       <c r="A2" s="2">
         <v>45711</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>1400</v>
@@ -1447,25 +1513,25 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O2">
         <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>125</v>
@@ -1474,54 +1540,138 @@
         <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AB2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AE2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AF2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AG2" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>105</v>
+        <v>193</v>
+      </c>
+      <c r="AH2">
+        <v>2024361</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK2">
+        <v>1200</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN2">
+        <v>1.1</v>
+      </c>
+      <c r="AO2">
+        <v>126</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>8</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>23.3</v>
+      </c>
+      <c r="AT2">
+        <v>44.84</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ2">
+        <v>23.3</v>
+      </c>
+      <c r="BA2">
+        <v>21.54</v>
+      </c>
+      <c r="BB2">
+        <v>22.36</v>
+      </c>
+      <c r="BF2">
+        <v>43.9</v>
+      </c>
+      <c r="BG2">
+        <v>0.018</v>
+      </c>
+      <c r="BH2">
+        <v>43.918</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CR2">
+        <v>79.52</v>
+      </c>
+      <c r="CT2">
+        <v>79.52</v>
+      </c>
+      <c r="CU2">
+        <v>79.52</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:99">
       <c r="A3" s="2">
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>1400</v>
@@ -1530,25 +1680,25 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L3">
         <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O3">
         <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>119</v>
@@ -1557,213 +1707,231 @@
         <v>120</v>
       </c>
       <c r="S3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AB3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AC3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AD3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AE3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AG3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AH3">
         <v>2024314</v>
       </c>
       <c r="AI3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AJ3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AK3">
+        <v>1400</v>
+      </c>
+      <c r="AL3">
         <v>9</v>
       </c>
-      <c r="AL3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN3">
         <v>9.1</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>135</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-9</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>6</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>13.27</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>34.75</v>
       </c>
-      <c r="AT3" t="s">
-        <v>202</v>
-      </c>
       <c r="AU3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY3">
+        <v>210</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ3">
         <v>13.39</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>21.56</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>23.13</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>23.85</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>46.98</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>-0.117</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>46.863</v>
       </c>
-      <c r="BH3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BI3">
+      <c r="BI3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ3">
         <v>2023769</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BM3">
+        <v>1400</v>
+      </c>
+      <c r="BN3">
         <v>2</v>
       </c>
-      <c r="BK3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL3">
+      <c r="BO3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP3">
         <v>2.4</v>
       </c>
-      <c r="BM3">
+      <c r="BQ3">
         <v>135</v>
       </c>
-      <c r="BN3">
+      <c r="BR3">
         <v>-9</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <v>6</v>
       </c>
-      <c r="BP3">
+      <c r="BT3">
         <v>1</v>
       </c>
-      <c r="BQ3">
+      <c r="BU3">
         <v>13.24</v>
       </c>
-      <c r="BR3">
+      <c r="BV3">
         <v>34.92</v>
       </c>
-      <c r="BS3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>211</v>
-      </c>
       <c r="BW3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BX3">
+        <v>214</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB3">
         <v>13.24</v>
       </c>
-      <c r="BY3">
+      <c r="CC3">
         <v>21.68</v>
       </c>
-      <c r="BZ3">
+      <c r="CD3">
         <v>23.54</v>
       </c>
-      <c r="CA3">
+      <c r="CE3">
         <v>23.38</v>
       </c>
-      <c r="CD3">
+      <c r="CH3">
         <v>46.92</v>
       </c>
-      <c r="CE3">
+      <c r="CI3">
         <v>-0.117</v>
       </c>
-      <c r="CF3">
+      <c r="CJ3">
         <v>46.803</v>
       </c>
-      <c r="CG3" t="s">
-        <v>233</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>235</v>
-      </c>
       <c r="CK3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="CL3" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="CM3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN3">
+        <v>227</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>250</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>247</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>258</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR3">
         <v>81.81</v>
       </c>
-      <c r="CO3">
+      <c r="CS3">
+        <v>81.72</v>
+      </c>
+      <c r="CT3">
         <v>81.77</v>
       </c>
+      <c r="CU3">
+        <v>81.72</v>
+      </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:99">
       <c r="A4" s="2">
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>1400</v>
@@ -1772,25 +1940,25 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L4">
         <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>117</v>
@@ -1799,144 +1967,150 @@
         <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="W4">
         <v>6</v>
       </c>
       <c r="Y4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AB4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AC4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AD4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AE4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AG4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AH4">
         <v>2023490</v>
       </c>
       <c r="AI4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AJ4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AK4">
+        <v>1400</v>
+      </c>
+      <c r="AL4">
         <v>4</v>
       </c>
-      <c r="AL4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN4">
         <v>2.9</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>126</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>6</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>-2</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>13.43</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>36.26</v>
       </c>
-      <c r="AT4" t="s">
-        <v>203</v>
-      </c>
       <c r="AU4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY4">
+        <v>211</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ4">
         <v>14.19</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>23.03</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>22.77</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>22.36</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>45.13</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>-0.036</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>45.094</v>
       </c>
-      <c r="BH4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>236</v>
+      <c r="BI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>113</v>
       </c>
       <c r="CM4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN4">
+        <v>228</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR4">
         <v>82.31</v>
       </c>
-      <c r="CO4">
+      <c r="CT4">
         <v>82.31</v>
       </c>
+      <c r="CU4">
+        <v>82.31</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:99">
       <c r="A5" s="2">
         <v>45711</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>1400</v>
@@ -1945,25 +2119,25 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L5">
         <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>115</v>
@@ -1972,141 +2146,147 @@
         <v>114</v>
       </c>
       <c r="S5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AB5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AE5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AF5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AH5">
         <v>2023241</v>
       </c>
       <c r="AI5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AJ5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AK5">
+        <v>1400</v>
+      </c>
+      <c r="AL5">
         <v>3</v>
       </c>
-      <c r="AL5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN5">
         <v>2.3</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>123</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>3</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>12</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-10</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>13.4</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>36.3</v>
       </c>
-      <c r="AT5" t="s">
-        <v>204</v>
-      </c>
       <c r="AU5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY5">
+        <v>212</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ5">
         <v>14.24</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>22.98</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>22.49</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>22.71</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>45.2</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>-0.135</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>45.065</v>
       </c>
-      <c r="BH5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>237</v>
+      <c r="BI5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>114</v>
       </c>
       <c r="CM5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN5">
+        <v>229</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>252</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CR5">
         <v>82.28</v>
       </c>
-      <c r="CO5">
+      <c r="CT5">
         <v>82.28</v>
       </c>
+      <c r="CU5">
+        <v>82.28</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:99">
       <c r="A6" s="2">
         <v>45711</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>1400</v>
@@ -2115,25 +2295,25 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L6">
         <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>115</v>
@@ -2142,141 +2322,147 @@
         <v>113</v>
       </c>
       <c r="S6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AB6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AE6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AG6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AH6">
         <v>2023359</v>
       </c>
       <c r="AI6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AK6">
+        <v>1400</v>
+      </c>
+      <c r="AL6">
         <v>6</v>
       </c>
-      <c r="AL6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM6">
+      <c r="AM6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN6">
         <v>9.800000000000001</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>129</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-3</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>9</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-8</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>13.19</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>34.38</v>
       </c>
-      <c r="AT6" t="s">
-        <v>205</v>
-      </c>
       <c r="AU6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY6">
+        <v>213</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ6">
         <v>13.91</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>21.67</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>23.26</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>23.1</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>46.36</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>-0.189</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>46.171</v>
       </c>
-      <c r="BH6" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>238</v>
+      <c r="BI6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>115</v>
       </c>
       <c r="CM6" t="s">
-        <v>220</v>
-      </c>
-      <c r="CN6">
+        <v>230</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CR6">
         <v>81.75</v>
       </c>
-      <c r="CO6">
+      <c r="CT6">
         <v>81.75</v>
       </c>
+      <c r="CU6">
+        <v>81.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:99">
       <c r="A7" s="2">
         <v>45711</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>1400</v>
@@ -2285,25 +2471,25 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L7">
         <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>115</v>
@@ -2312,57 +2498,141 @@
         <v>112</v>
       </c>
       <c r="S7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="Y7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AB7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AC7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AD7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AE7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AG7" t="s">
-        <v>188</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>110</v>
+        <v>194</v>
+      </c>
+      <c r="AH7">
+        <v>2024361</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK7">
+        <v>1200</v>
+      </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN7">
+        <v>72</v>
+      </c>
+      <c r="AO7">
+        <v>126</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>6</v>
+      </c>
+      <c r="AR7">
+        <v>-3</v>
+      </c>
+      <c r="AS7">
+        <v>23.3</v>
+      </c>
+      <c r="AT7">
+        <v>44.84</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ7">
+        <v>24.14</v>
+      </c>
+      <c r="BA7">
+        <v>21.62</v>
+      </c>
+      <c r="BB7">
+        <v>22.09</v>
+      </c>
+      <c r="BF7">
+        <v>43.71</v>
+      </c>
+      <c r="BG7">
+        <v>-0.05399999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>43.656</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>254</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CR7">
+        <v>80.2</v>
+      </c>
+      <c r="CT7">
+        <v>80.2</v>
+      </c>
+      <c r="CU7">
+        <v>80.2</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:99">
       <c r="A8" s="2">
         <v>45711</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>1400</v>
@@ -2371,25 +2641,25 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L8">
         <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>114</v>
@@ -2398,210 +2668,228 @@
         <v>112</v>
       </c>
       <c r="S8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AB8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AE8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AF8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AH8">
         <v>2024314</v>
       </c>
       <c r="AI8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AJ8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AK8">
+        <v>1400</v>
+      </c>
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AL8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM8">
+      <c r="AM8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN8">
         <v>7.7</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>122</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>4</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>9</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>-3</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>13.27</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>34.75</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ8">
+        <v>13.59</v>
+      </c>
+      <c r="BA8">
+        <v>21.8</v>
+      </c>
+      <c r="BB8">
+        <v>22.85</v>
+      </c>
+      <c r="BC8">
+        <v>23.35</v>
+      </c>
+      <c r="BF8">
+        <v>46.2</v>
+      </c>
+      <c r="BG8">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="BH8">
+        <v>46.206</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BJ8">
+        <v>2023490</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL8" t="s">
         <v>202</v>
       </c>
-      <c r="AU8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX8" t="s">
+      <c r="BM8">
+        <v>1400</v>
+      </c>
+      <c r="BN8">
+        <v>3</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP8">
+        <v>18</v>
+      </c>
+      <c r="BQ8">
+        <v>126</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>2</v>
+      </c>
+      <c r="BT8">
+        <v>4</v>
+      </c>
+      <c r="BU8">
+        <v>13.43</v>
+      </c>
+      <c r="BV8">
+        <v>36.26</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX8" t="s">
         <v>216</v>
       </c>
-      <c r="AY8">
-        <v>13.59</v>
-      </c>
-      <c r="AZ8">
-        <v>21.8</v>
-      </c>
-      <c r="BA8">
-        <v>22.85</v>
-      </c>
-      <c r="BB8">
-        <v>23.35</v>
-      </c>
-      <c r="BE8">
-        <v>46.2</v>
-      </c>
-      <c r="BF8">
-        <v>0.006000000000000005</v>
-      </c>
-      <c r="BG8">
-        <v>46.206</v>
-      </c>
-      <c r="BH8" t="s">
+      <c r="CA8" t="s">
         <v>221</v>
       </c>
-      <c r="BI8">
-        <v>2023490</v>
-      </c>
-      <c r="BJ8">
-        <v>3</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL8">
-        <v>18</v>
-      </c>
-      <c r="BM8">
-        <v>126</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>2</v>
-      </c>
-      <c r="BP8">
-        <v>4</v>
-      </c>
-      <c r="BQ8">
-        <v>13.43</v>
-      </c>
-      <c r="BR8">
-        <v>36.26</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>208</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>213</v>
-      </c>
-      <c r="BX8">
+      <c r="CB8">
         <v>13.75</v>
       </c>
-      <c r="BY8">
+      <c r="CC8">
         <v>22.75</v>
       </c>
-      <c r="BZ8">
+      <c r="CD8">
         <v>23.29</v>
       </c>
-      <c r="CA8">
+      <c r="CE8">
         <v>22.56</v>
       </c>
-      <c r="CD8">
+      <c r="CH8">
         <v>45.85</v>
       </c>
-      <c r="CE8">
+      <c r="CI8">
         <v>0.07199999999999999</v>
       </c>
-      <c r="CF8">
+      <c r="CJ8">
         <v>45.922</v>
       </c>
-      <c r="CG8" t="s">
-        <v>214</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>221</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>239</v>
-      </c>
       <c r="CK8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="CL8" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="CM8" t="s">
-        <v>246</v>
-      </c>
-      <c r="CN8">
+        <v>232</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>255</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>262</v>
+      </c>
+      <c r="CR8">
         <v>81.59999999999999</v>
       </c>
-      <c r="CO8">
+      <c r="CS8">
+        <v>82.42</v>
+      </c>
+      <c r="CT8">
         <v>82.01000000000001</v>
       </c>
+      <c r="CU8">
+        <v>81.59999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:99">
       <c r="A9" s="2">
         <v>45711</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>1400</v>
@@ -2610,25 +2898,25 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L9">
         <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>110</v>
@@ -2637,213 +2925,231 @@
         <v>108</v>
       </c>
       <c r="S9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="Y9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AC9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AD9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AF9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AG9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AH9">
         <v>2024314</v>
       </c>
       <c r="AI9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AJ9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AK9">
+        <v>1400</v>
+      </c>
+      <c r="AL9">
         <v>1</v>
       </c>
-      <c r="AL9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM9">
+      <c r="AM9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN9">
         <v>2.2</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>115</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>11</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>7</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>1</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>13.27</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>34.75</v>
       </c>
-      <c r="AT9" t="s">
-        <v>202</v>
-      </c>
       <c r="AU9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY9">
+        <v>210</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ9">
         <v>13.51</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>21.6</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>22.89</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>22.91</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>45.8</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>0.183</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>45.983</v>
       </c>
-      <c r="BH9" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI9">
+      <c r="BI9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ9">
         <v>2024072</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM9">
+        <v>1400</v>
+      </c>
+      <c r="BN9">
         <v>2</v>
       </c>
-      <c r="BK9" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL9">
+      <c r="BO9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP9">
         <v>2.8</v>
       </c>
-      <c r="BM9">
+      <c r="BQ9">
         <v>122</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <v>4</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <v>4</v>
       </c>
-      <c r="BP9">
+      <c r="BT9">
         <v>4</v>
       </c>
-      <c r="BQ9">
+      <c r="BU9">
         <v>13.32</v>
       </c>
-      <c r="BR9">
+      <c r="BV9">
         <v>35.54</v>
       </c>
-      <c r="BS9" t="s">
-        <v>226</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>228</v>
-      </c>
       <c r="BW9" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX9">
+        <v>240</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>242</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB9">
         <v>13.72</v>
       </c>
-      <c r="BY9">
+      <c r="CC9">
         <v>22.34</v>
       </c>
-      <c r="BZ9">
+      <c r="CD9">
         <v>22.8</v>
       </c>
-      <c r="CA9">
+      <c r="CE9">
         <v>22.58</v>
       </c>
-      <c r="CD9">
+      <c r="CH9">
         <v>45.38</v>
       </c>
-      <c r="CE9">
+      <c r="CI9">
         <v>0.132</v>
       </c>
-      <c r="CF9">
+      <c r="CJ9">
         <v>45.512</v>
       </c>
-      <c r="CG9" t="s">
-        <v>234</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>222</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>240</v>
-      </c>
       <c r="CK9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="CL9" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="CM9" t="s">
-        <v>247</v>
-      </c>
-      <c r="CN9">
+        <v>233</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>256</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>248</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>260</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CR9">
         <v>81.09</v>
       </c>
-      <c r="CO9">
+      <c r="CS9">
+        <v>81.56999999999999</v>
+      </c>
+      <c r="CT9">
         <v>81.33</v>
       </c>
+      <c r="CU9">
+        <v>81.09</v>
+      </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:99">
       <c r="A10" s="2">
         <v>45711</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G10">
         <v>1400</v>
@@ -2852,25 +3158,25 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L10">
         <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>109</v>
@@ -2879,193 +3185,211 @@
         <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="V10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Z10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AB10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AD10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AF10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AG10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AH10">
         <v>2023769</v>
       </c>
       <c r="AI10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AJ10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AK10">
+        <v>1400</v>
+      </c>
+      <c r="AL10">
         <v>1</v>
       </c>
-      <c r="AL10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM10">
+      <c r="AM10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN10">
         <v>3.1</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>115</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>11</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>3</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>2</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>13.24</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>34.92</v>
       </c>
-      <c r="AT10" t="s">
-        <v>206</v>
-      </c>
       <c r="AU10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY10">
+        <v>214</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ10">
         <v>13.72</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>21.96</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>23.02</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>23.07</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>46.09</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>0.201</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>46.291</v>
       </c>
-      <c r="BH10" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI10">
+      <c r="BI10" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ10">
         <v>2023414</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM10">
+        <v>1400</v>
+      </c>
+      <c r="BN10">
         <v>2</v>
       </c>
-      <c r="BK10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL10">
+      <c r="BO10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP10">
         <v>1.2</v>
       </c>
-      <c r="BM10">
+      <c r="BQ10">
         <v>115</v>
       </c>
-      <c r="BN10">
+      <c r="BR10">
         <v>11</v>
       </c>
-      <c r="BO10">
+      <c r="BS10">
         <v>1</v>
       </c>
-      <c r="BP10">
+      <c r="BT10">
         <v>4</v>
       </c>
-      <c r="BQ10">
+      <c r="BU10">
         <v>13.65</v>
       </c>
-      <c r="BR10">
+      <c r="BV10">
         <v>35.01</v>
       </c>
-      <c r="BS10" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>229</v>
-      </c>
       <c r="BW10" t="s">
-        <v>232</v>
-      </c>
-      <c r="BX10">
+        <v>241</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB10">
         <v>13.93</v>
       </c>
-      <c r="BY10">
+      <c r="CC10">
         <v>21.64</v>
       </c>
-      <c r="BZ10">
+      <c r="CD10">
         <v>23.03</v>
       </c>
-      <c r="CA10">
+      <c r="CE10">
         <v>22.88</v>
       </c>
-      <c r="CD10">
+      <c r="CH10">
         <v>45.91</v>
       </c>
-      <c r="CE10">
+      <c r="CI10">
         <v>0.237</v>
       </c>
-      <c r="CF10">
+      <c r="CJ10">
         <v>46.147</v>
       </c>
-      <c r="CG10" t="s">
-        <v>233</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>241</v>
-      </c>
       <c r="CK10" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="CL10" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="CM10" t="s">
-        <v>230</v>
-      </c>
-      <c r="CN10">
+        <v>234</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>257</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>247</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>261</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>244</v>
+      </c>
+      <c r="CR10">
         <v>81.97</v>
       </c>
-      <c r="CO10">
+      <c r="CS10">
+        <v>81.72</v>
+      </c>
+      <c r="CT10">
         <v>81.84</v>
+      </c>
+      <c r="CU10">
+        <v>81.72</v>
       </c>
     </row>
   </sheetData>
